--- a/Documentatie/PX2 testcase.xlsx
+++ b/Documentatie/PX2 testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFDAE7F4-DD11-4443-8E91-92FE8EA894D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37956EE0-6248-4173-9F73-1B4CF49875BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teststappen" sheetId="1" r:id="rId1"/>
@@ -175,15 +175,63 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -192,16 +240,478 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -210,9 +720,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -519,10 +1120,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,113 +1139,154 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="38" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="1:5" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="1" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -652,57 +1297,73 @@
     <col min="5" max="5" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="63" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="36" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C6"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -711,72 +1372,248 @@
     <col min="3" max="3" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:3" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>39</v>
       </c>
-    </row>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="72.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="48" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>